--- a/data/outputs/management/97.xlsx
+++ b/data/outputs/management/97.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ99"/>
+  <dimension ref="A1:BR99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -925,6 +930,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>4271752</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1138,6 +1148,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>4389877</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1351,6 +1366,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>4272187</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1560,6 +1580,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1757,6 +1778,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1954,6 +1976,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2155,6 +2178,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2372,6 +2396,11 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>4455261</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2589,6 +2618,11 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>4445921</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2802,6 +2836,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>6713133</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3019,6 +3058,11 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>4480092</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3220,6 +3264,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3437,6 +3482,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3624,6 +3670,11 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>4061070</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3811,6 +3862,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>4061068</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4036,6 +4092,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4245,6 +4302,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4454,6 +4512,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4655,6 +4714,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4872,6 +4932,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5089,6 +5150,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5302,6 +5364,11 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>4135940</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5503,6 +5570,11 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>3905560</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5712,6 +5784,11 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>6938783</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5929,6 +6006,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6130,6 +6208,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6339,6 +6418,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6548,6 +6628,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6749,6 +6830,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6970,6 +7052,11 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr">
+        <is>
+          <t>4512045</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7183,6 +7270,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7388,6 +7476,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7589,6 +7678,11 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>4575976</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7802,6 +7896,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8003,6 +8098,11 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>4220718</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8204,6 +8304,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8409,6 +8510,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8614,6 +8716,11 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr">
+        <is>
+          <t>3719359</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8819,6 +8926,11 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>3105145</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9040,6 +9152,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9253,6 +9366,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9466,6 +9580,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9667,6 +9782,11 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr">
+        <is>
+          <t>3011525</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9880,6 +10000,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10093,6 +10214,11 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>2984001</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10306,6 +10432,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10519,6 +10646,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10732,6 +10860,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10941,6 +11070,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11154,6 +11284,11 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr">
+        <is>
+          <t>3731535</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11367,6 +11502,11 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr">
+        <is>
+          <t>3768534</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11568,6 +11708,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11777,6 +11918,11 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr">
+        <is>
+          <t>4059203</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11978,6 +12124,11 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr">
+        <is>
+          <t>3773914</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12191,6 +12342,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12392,6 +12544,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12609,6 +12762,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12810,6 +12964,11 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr">
+        <is>
+          <t>3733871</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13019,6 +13178,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13224,6 +13384,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13437,6 +13598,11 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr">
+        <is>
+          <t>2920043</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13646,6 +13812,11 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr">
+        <is>
+          <t>2945902</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13867,6 +14038,11 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr">
+        <is>
+          <t>2992035</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14080,6 +14256,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14297,6 +14474,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14510,6 +14688,11 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr">
+        <is>
+          <t>3043606</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14711,6 +14894,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14928,6 +15112,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15129,6 +15314,11 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr">
+        <is>
+          <t>3010970</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15342,6 +15532,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15551,6 +15742,11 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr">
+        <is>
+          <t>3815391</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15764,6 +15960,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15977,6 +16174,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16182,6 +16380,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16395,6 +16594,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16588,6 +16788,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16797,6 +16998,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17006,6 +17208,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17207,6 +17410,11 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr">
+        <is>
+          <t>3444749</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17408,6 +17616,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17609,6 +17818,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17814,6 +18024,11 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr">
+        <is>
+          <t>2716454</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18015,6 +18230,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18220,6 +18436,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18433,6 +18650,11 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr">
+        <is>
+          <t>2890880</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18638,6 +18860,11 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr">
+        <is>
+          <t>3544230</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18851,6 +19078,11 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr">
+        <is>
+          <t>2859326</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19052,6 +19284,11 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr">
+        <is>
+          <t>3610798</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19269,6 +19506,11 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr">
+        <is>
+          <t>2982129</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19466,6 +19708,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19679,6 +19922,11 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr">
+        <is>
+          <t>2798993</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19880,6 +20128,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20089,6 +20338,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20298,6 +20548,11 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr">
+        <is>
+          <t>4261694</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20499,6 +20754,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20720,6 +20976,11 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr">
+        <is>
+          <t>2716967</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20933,6 +21194,11 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr">
+        <is>
+          <t>2799368</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21138,6 +21404,11 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr">
+        <is>
+          <t>13479458</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
